--- a/Physiopathologie/Excel/test traitement image/test_endocrino.xlsx
+++ b/Physiopathologie/Excel/test traitement image/test_endocrino.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="164">
   <si>
     <t>Question</t>
   </si>
@@ -28,52 +28,484 @@
     <t>Reference</t>
   </si>
   <si>
-    <t xml:space="preserve">Q36. Concernant l'hypophyse, caractériser par Vrai ou Faux chacune des propositions suivantes.  </t>
+    <t xml:space="preserve">Q3. Concernant les dysnatrémies, caractériser par Vrai ou Faux chacune des propositions suivantes.  </t>
   </si>
   <si>
     <t xml:space="preserve">Q2. Concernant les surrénales, caractériser par Vrai ou Faux chacune des propositions suivantes.  </t>
   </si>
   <si>
-    <t xml:space="preserve">Q23. Concernant l'hypophyse, caractériser par Vrai ou Faux chacune des propositions suivantes.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q16. Concernant les surrénales, caractériser par Vrai ou Faux chacune des propositions suivantes.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> La somatostatine est également un neuromédiateur hypothalamique qui exerce un effet inhibiteur sur les cellules thyréotropes et sur les cellules somatotropes de l'hypophyse antérieure.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">.Tous les patients porteurs d'une hyperthyroïdie primaire ont une TSH basse.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> La compression de la tige pituitaire par une lésion invasive s'accompagne toujours d'une augmentation de la prolactine plasmatique.    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Un déficit en 21-hydroxylase entraîne notamment une diminution de la synthèse de cortisol.    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Une corticothérapie au long cours peut induire une hyperpigmentation cutanée    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Lors d'une hyponatrémie hypo-osmolaire avec Un/Uk &gt; 1, s'il existe également une hyperkaliémie et si la rénine est élevée, le diagnostic d'hypo-aldostéronisme primaire est possible.    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Lors d'une section traumatique de la tige pituitaire, il faut notamment s'attendre à une réduction de l'ADH plasmatique et à une augmentation de la prolactine plasmatique.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> La sécrétion d'ACTH par les cellules corticotropes de l'hypophyse antérieure est cyclique et pulsatile, étant maximale vers 18h.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Lors d’une hyperthyroïdie primaire avec TSH indétectable, il n'y à jamais de goître.    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Au niveau des cellules possédant le récepteur aux minéralocorticoïdes, le cortisol est activé en cortisone par la 118-HS02 et peut ainsi exercer ses effets minéralocorticoides.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> L'hyperstimulation de l'axe corticotrope peut induire une hyperpigmentation cutanée via la liaison du cortisol au récepteur MC1 du mélanocyte.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Lorsque les taux de rénine sont indétectables et les taux d'aldostérone sont élevés, il faut songer à un état d'hyperaldostéronisme primaire, Ce diagnostic est renforcé si les éléments suivants sont présents: HTA sans œdèmes; natrémie à la limite supérieure de la normale ou hypernatrémie peu importante (145 à 147 mEq/Lj; hypokaliémie; alcalose métabolique chloro-résistante.    </t>
+    <t xml:space="preserve">Q1. Concernant les volumes pulmonaires, caractériser par Vrai ou Faux chacune des propositions suivantes.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q6. Concernant la circulation pulmonaire, caractériser par Vrai ou Faux chacune des propositions suivantes.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q8. Concernant l'effort physique, caractériser par Vrai ou Faux chacune des propositions suivantes.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q5. Concernant la motricité digestive, caractériser par Vrai ou Faux chacune des propositions suivantes.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q7. Concernant le débit de filtration glomérulaire (DFG), caractériser par Vrai ou Faux chacune des propositions suivantes.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q4. Concernant l’ECG, caractériser par Vrai ou Faux chacune des propositions suivantes.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q10. Concernant les gaz sanguins, caractériser par Vrai ou Faux chacune des propositions suivantes.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q12. Concernant la circulation systémique, caractériser par Vrai ou Faux chacune des propositions suivantes.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q11. Concernant le métabolisme phospho-calcique, caractériser par Vrai ou Faux chacune des propositions suivantes.  Un patient de 60 ans se présente à la consultation dans le cadre du suivi d’une insuffisance rénale chronique sévère (stade G4) avec un DFG estimé à 25 ml/min/1,73 m? selon le MDRD.  Biologie: urée 100 mg/di (15-40); créatinine 2,2 mg/dl (0,7-1,2) ; Na* 135 mEq/L (135-145); K* 4,0 mEq/L (3,5-4,8); CI 105 mEq/L (97-109); HCOz 18 mEq/L ; phosphate 1,8 mmol/L (0,8-1,5) ; PTH intacte bioactive 120 ng/L (&lt; 49) ; calcémie 2,1 mmol/L(2,12-2,62) ; albumine 4 g/di (4,0-4,8)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q.  Un patient de 50 ans, porteur d’une insuffisance cardiaque, se présente aux urgences pour des difficultés respiratoires et une prise de poids de 6 kg en 2 jours. Il ne prend pas de diurétique.  Examen clinique: TA 90/70 mmHg et rythme cardiaque 114/min régulier. Il existe également une hypotension orthostatique. L'examen pulmonaire révèle des épanchements pleuraux bilatéraux. Présence d’ascite et d'œdèmes des membres inférieurs.  Biologie à l’admission: Na*125 mEq/L (135-145); K* 3,6 mEq/L (3,5-4,8); créatinine 1 mg/dl (0,7-1,2) Récolte des urines de 24h: 1L ; osmolalité 500 mosm/kg; créatinine 100 mg/dl; Na* 15 mEq/L  Caractériser par Vrai ou Faux chacune des propositions suivantes.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q18. Concernant les sécrétions digestives, caractériser par Vrai ou Faux chacune des propositions suivantes.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q15. Concernant la pompe cardiaque, caractériser par Vrai ou Faux chacune des propositions suivantes.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q17. Concernant le transport des gaz sanguins, caractériser par Vrai ou Faux chacune des propositions suivantes.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q14. Concernant les troubles de lhydratation, caractériser par Vrai ou Faux chacune des propositions suivantes.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q16. Concernant la concentration et la dilution de l’urine, caractériser par Vrai ou Faux chacune des propositions suivantes. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q13. Concernant les macronutriments, caractériser par Vrai ou Faux chacune des propositions suivantes.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q21. Concernant la cascade de l’oxygène, caractériser par Vrai ou Faux chacune des propositions suivantes.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q23. Concernant les minéraux et vitamines, caractériser par Vrai ou Faux chacune des propositions suivantes  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q20. Concernant la fonction tubulaire, caractériser par Vrai ou Faux chacune des propositions suivantes.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q22. Concernant l’électrophysiologie cardiaque, caractériser par Vrai ou Faux chacune des propositions suivantes.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q19. Concernant le contrôle de la ventilation, caractériser par Vrai ou Faux chacune des propositions suivantes.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q28. Concernant la régulation acide-base, caractériser par Vrai ou Faux chacune des propositions suivantes.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q25.  Un patient présente les résultats suivants lors des épreuves fonctionnelles respiratoires : capacité pulmonaire totale (CPT) 6L ; capacité vitale forcée (CVF) 4L ; capacité résiduelle fonctionnelle (CRF) 3,2L ; VEMS 3L. Caractériser par Vrai ou Faux chacune des propositions suivantes.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q27. Concernant l'hypophyse et la thyroïde, caractériser par Vrai ou Faux chacune des propositions suivantes.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q26. Concernant le retour veineux, caractériser par Vrai ou Faux chacune des propositions suivantes.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q24.  Un homme de 30 ans présente une polyurie-polydipsie depuis plusieurs mois. Il n’a pas d’antécédents particuliers et ne prend pas de médicaments. Il ne consomme pas d’alcool.  Examen clinique: TA 110/70 mmHg et rythme cardiaque 72/min régulier. L'hydratation du LEC est cliniquement normale.  Biologie: Na* 131,5 mmol/L (135-145); K* 3,6 mmol/L (3,5-4,8); CI 97 mmol/L (97-109); HCO3 22 mmol/L (22-26); créatinine 0,6 mg/dl (0,5-1,0); urée 18 mg/dl (15-40); glycémie 72 mg/di (70-100)  Récolte des urines de 24h: 8,2 L ; osmolalité 67,5 mosm/kg  Caractériser par Vrai ou Faux chacune des propositions suivantes.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q31. Concernant l’hypoxie, caractériser par Vrai ou Faux chacune des propositions suivantes.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q34. Concernant les diarrhées, caractériser par Vrai ou Faux chacune des propositions suivantes.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q30. Concernant l'insuffisance cardiaque, caractériser par Vrai ou Faux chacune des propositions suivantes.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q33. Concernant la régulation de la pompe cardiaque, caractériser par Vrai ou Faux chacune des propositions suivantes.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q32. Concernant le potassium, caractériser par Vrai ou Faux chacune des propositions suivantes.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q29. Concernant la ventilation pulmonaire, caractériser par Vrai ou Faux chacune des propositions suivantes.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q37. Concernant la circulation systémique, caractériser par Vrai ou Faux chacune des propositions suivantes.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q40.  Un patient de 30 ans, sans antécédents particulier est admis en urgence pour polyurie et polydipsie depuis quelques jours.  Examen clinique : le patient est conscient. TA 95/60 mmHg ; rythme cardiaque 120/minute, régulier. Respiration rapide et profonde.  Biologie: Na* 131 mEq/L (135-145); K*4,0 mEq/L (3,5-4,8) ; CI 93 mEq/L (97-109) ; HCO3 6 mEq/L (22-26) ; glucose 702 mg/di (70-100) ; urée 42 mg/dl (15-40) ; créatinine 1,3 mg/dl (0,7-1,2).  Gazométrie artérielle (air ambiant): pH 7,10 ; PaCO&gt; 1b8 mm Hg ; PaO2 100 mmHg.  Caractériser par Vrai ou Faux chacune des propositions suivantes.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q36. Concernant les diurétiques, caractériser par Vrai ou Faux chacune des propositions suivantes.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q39. Concernant la mécanique statique du système respiratoire, caractériser par Vrai ou Faux chacune des propositions suivantes.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q38. Concernant le foie et les voies biliaires, caractériser par Vrai ou Faux chacune des propositions suivantes.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q35. Concernant la circulation pulmonaire, caractériser par Vrai ou Faux chacune des propositions suivantes.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lors d’une transpiration abondante, les pertes liquidiennes sont hypertoniques et favorisent l’hypernatrémie.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lors d’un SIADH chronique, et en absence de prise de diurétiques, l'élimination urinaire quotidienne de Na* est inférieure aux apports quotidiens de Na*.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Un patient doit éliminer quotidiennement 600 mosmoles urinaires et ses pertes liquidiennes extra-rénales sont de 0,5L/j. Dans ces conditions, s’il présente un trouble de dilution de l'urine ne lui permettant pas de descendre en dessous de 250 mosm/kg H20, il développera une hyponatrémie hypo-osmolaire si ses apports hydriques sont supérieurs à 2,9L/i.     </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Une corticothérapie au long cours peut induire une hvoernigmentation cutanée.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L'hyperproduction d’androgènes surrénaliens qui peut se rencontrer dans la maladie de Cushing s’explique par une hyperstimulation de la zone réticulée de la corticosurrénale par l’ACTH.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Un traitement par corticoïdes par voie orale, à des doses suppressives et durant une période d’au moins 3 semaines, induit l’atrophie de la zone fasciculée de la corticosurrénale.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La capacité vitale est le volume expiré après une inspiration maximale suivie d’une expiration calme.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Les volumes pulmonaires sont dépendants du poids et de la taille du sujet mais vas de son sexe.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Chez un patient emphysémateux, la CPT, le VR, la CRF sont majorés et la DLCO est diminuée.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La vasoconstriction pulmonaire hypoxique est toujours délétère.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> En décubitus dorsal, la perfusion artérielle pulmonaire devient uniforme entre l’apex et la base pulmonaires mais est plus importante dans les régions postérieures (dorsales) qu’antérieures (ventrales).    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lors d’un incendie, le risque pour les personnes exposées est de développer un œdème pulmonaire lié à une augmentation de K: dans l’équation des forces de Starling.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lors de l’effort physique intense, les muscles respiratoires accessoires inspiratoires et expiratoires sont recrutés.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A l'effort, la pression artérielle pulmonaire augmente ainsi que la résistance vasculaire pulmonaire.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L’entraînement physique réduit la fréquence cardiaque de repos majorant ainsi la réserve d'augmentation de la fréquence cardiaque jusqu’à celle maximale à l'effort.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> En dehors de l'exonération, le muscle pubo-rectal est relâché.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L’'accommodation gastrique est un réflexe mixte, vago-vagal et intrinsèque, déclenché au niveau de la cavité gastrique par la présence du bol alimentaire.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Les complexes moteurs migrants interdigestifs sont composés de 3 phases dont la dernière, et qui est la plus longue, est une période de contractions régulières et intenses.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lorsque le volume circulant effectif est diminué, l'administration d’AINS est contre-indiquée dans la mesure où les AINS accentuent la vasoconstriction de l’artériole afférente (AA).    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lorsque la pression de perfusion rénale augmente, le réflexe myogénique induit une vasoconstriction de  l’artériole efférente (AE) pour maintenir stable le DFG.     </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Les dextrans polyanioniques dont la taille est inférieure à 20 À sont librement filtrés au niveau de la barrière glomérulaire.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L’amplitude de l’activité électrique sur un ECG est plus grande que celle du potentiel d'action d’un cardiomyocvte.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Une dérivation bipolaire permet de mesurer une différence de potentiel entre deux électrodes indifférentes.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L’'ECG est un outil important pour mesurer l’activité contractile du cœur.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le transfert alvéolo-capillaire du CO est limité par la diffusion car ce gaz a une très forte affinité pour l’hémoglobine.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La diffusion du CO2 dans les tissus est inférieure à celle de l’O2 par suite de sa plus faible solubilité.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L’hypoxémie liée à l’hypoventilation est aisée à corriger par administration d'oxygène (oxygénothérapie avec majoration de la FIO2) mais l’hypercapnie persistera.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La pression artérielle systémique pulsée est la différence entre la pression artérielle systémique moyenne et la pression auriculaire droite.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La pression artérielle systémique moyenne augmente lors d’une augmentation isolée du débit cardiaque.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Avec l’âge, la pression artérielle systémique pulsée diminue suite à une diminution de la compliance artérielle systémique.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L'hyperparathyroïdie est une des causes de l’hyperphosphatémie.     </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le dosage du FGF-23 plasmatique donnera une valeur élevée.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le dosage du calcitriol plasmatique indiquera une valeur basse, s’expliquant notamment par une inhibition de  la 25 hydroxylase rénale.     </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L'hyponatrémie hypo-osmolaire résulte de la sécrétion non osmotique d'ADH et traduit une réduction importante du volume circulant effectif.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La quantité de sodium excrétée est égale à 15 mEq/)    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La fraction excrétée de Na* au niveau urinaire est égale à 0,12%    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Contrairement à la sécrétion salivaire, la tonicité du liquide pancréatique est indépendante du débit sécrétoire.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La sécrétion acinaire pancréatique est principalement stimulée par la cholécystokinine.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> En période interprandiale, la concentration de Na* du liquide gastrique est basse.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La tension active développée par le muscle cardiaque isolé (muscle papillaire) dépend de sa longueur de repos.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lors d’une augmentation de la fréquence cardiaque, lors d’un cycle cardiaque, la durée de la systole est plus réduite que celle de la diastole.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L'ouverture de la valve aortique survient lorsque la pression intraventriculaire gauche devient juste inférieure à la pression diastolique de l’aorte.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Une modification de la quantité d’hémoglobine dans le sang est associée à une modification du contenu en oxygène dans le sang.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le transport sanguin du gaz carbonique se fait principalement en combinaison avec des protéines.     </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L’acidose s'associe à une baisse de l’affinité de l’hémoglobine pour l'oxygène et à une augmentation de la P5o.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lors d’un syndrome d’excès apparent en minéralocorticoides, la rénine et l’aldostérone plasmatiques sont élevées.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Les œdèmes des membres inférieurs font classiquement partie du tableau clinique du syndrome de Conn.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lors d’une maladie d’Addison, le volume du LEC et le volume circulant effectif sont diminués alors que la concentration plasmatique de rénine est élevée.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L’excrétion urinaire d’urée est indépendante du débit urinaire.      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> En antidiurèse, le liquide tubulaire qui quitte la branche large ascendante de l’anse de Henlé est déjà fortement  hyper-osmotique.     </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La circulation à contre-courant est une disposition passive qui limite les pertes de solutés mais qui ne permet pas de générer un gradient d’osmolalité.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> En présence de fibres végétales, l'index glycémique d'un aliment est augmenté.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lors d’une intolérance au lactose, toute prise de lactose est symptomatique.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Les dipeptides et les tripeptides sont absorbés dans l’entérocyte par un mécanisme de transport actif tertiaire.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lors d’un séjour en altitude, l’hypoxémie liée à l’hypoxie hypobare est limitée en partie par l’hyperventilation adaptative.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Chez les patients atteints de fibrose pulmonaire, le temps d’équilibration entre la PO dans le capillaire pulmonaire et la PaO2 peut devenir insuffisant lors des efforts et conduire à une hypoxémie d’effort.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le test à l'oxygène pur (FiO2 100%) permet de suspecter la présence d’un shunt par amélioration de la saturation  de l’hémoglobine en oxygène.     </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Une réduction durable de la synthèse d’hepcidine entraîne une hyposidérémie.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le PteGlu1 (ou acide ptéroylglutamique) est transporté dans les cellules villositaires du grêle proximal par un symport apical qui est sodium dépendant.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La méthylcobalamine est un cofacteur de la méthionine synthase qui permet de former de la méthionine à partir d’'homocystéine.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lors d’un syndrome de Fanconi acquis, la bicarbonaturie est initiale et transitoire.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Chez un individu dont la fonction rénale est normale, la prise de cimétidine peut être responsable d’une sous- estimation du débit de filtration glomérulaire.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L’alcalinisation des urines favorise la formation des lithiases d’acide urique.     </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le système nerveux parasympathique régule l’activité du nœud sinusal notamment en diminuant la pente du potentiel pace-maker (ralentissement de la vitesse de dépolarisation).    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Les cardiomyocytes proches de l’épicarde seront les derniers à se repolariser.     </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lors de la dépolarisation d’un cardiomyocyte, il y a une inversion membranaire brusque et transitoire des charges de part et d'autre de la membrane. Les charges sont alors négatives sur le versant intracellulaire et positives sur le versant extracellulaires de la membrane.     </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dans les zones pulmonaires hypoventilées, l’hypercapnie alvéolaire locale induit une bronchoconstriction.     </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L'intoxication au CO s'associe à une hypoxie cellulaire responsable d’une hyperventilation.     </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le réflexe de Hering-Breuer est un réflexe d’inhibition de l'inspiration, déclenché par la distension pulmonaire.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L’hypokaliémie favorise le développement d’une alcalose métabolique en stimulant l’ammoniogenèse au niveau des cellules rénales du tubule proximal.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lors d’une acidose métabolique, la valeur du pH urinaire permet de déterminer si la production rénale de NH4* est appropriée.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Un trou anionique plasmatique augmenté signifie, en théorie, que les anions plasmatiques non mesurés ont augmenté ou que les cations plasmatiques non mesurés ont diminué.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ce patient ne présente pas de trouble ventilatoire obstructif.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le volume de réserve expiratoire est de 2L.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I! manque le volume de réserve inspiratoire (VRI) pour calculer la capacité inspiratoire de ce patient.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Une section partielle de la tige pituitaire entraîne généralement une hypo-prolactinémie transitoire.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Une TSH plasmatique élevée correspond le plus souvent à une hyperthyroïdie secondaire.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Les cellules somatotropes sont les cellules les plus abondantes de l’hypophyse antérieure.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La pente de la courbe de fonction veineuse correspond à +1/RVS avec RVS = résistance vasculaire systémique.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Une augmentation de la contractilité myocardique a pour effet que la courbe de débit cardiaque croise celle de fonction veineuse en un point correspondant à un plus haut débit cardiaque et une pression veineuse centrale plus élevée.     </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L'hypotension artérielle orthostatique est associée à une baisse de la pression artérielle systémique systolique et/ou diastolique associée à une élévation de la fréquence cardiaque lors du passage de la position couchée à celle debout.     </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La détermination de la concentration plasmatique d’ADH donnera une valeur basse et appropriée.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pour préciser le diagnostic, le test de restriction hydrique doit être suivi de l'injection d’ADH.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La clearance d’eau libre est égale à +6,15 L/)    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L’hypoxie tissulaire chronique s’associe à une diminution du rayon des fibres musculaires périphériques.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La polyglobulie est un mécanisme compensateur à une hypoxie chronique associée à des maladies cardiaques ou pulmonaires.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lors d’une intoxication au cyanure, l’hypoxie cellulaire résulte d’une baisse de l’oxémie.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La prise orale d’antibiotiques peut entraîner une diarrhée osmotique par augmentation de la production colique d'acides gras à chaînes courtes.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La toxine du choléra CTX peut inhiber le cotransporteur SGLT1.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dans les conditions normales, l'absorption colique de NaCl est assurée par les échangeurs apicaux Na*/H* et CI'/HCO3 qui travaillent en parallèle.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Seule l'insuffisance cardiaque à FEVG diminuée peut s'accompagner d’hypertension pulmonaire post-capillaire (liée à une élévation de la PAPO).    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dans l'insuffisance cardiaque à FEVG préservée, la diminution de compliance du ventricule gauche s'accompagne d’une augmentation de la pression télé-diastolique de celui-ci.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Les systèmes orthosympathique et rénine-angiotensine-aldostérone sont impliqués dans la physiopathologie de l’insuffisance cardiaque.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Les chémorécepteurs sont influencés directement par une baisse du débit cardiaque.     </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La distension des oreillettes et de la paroi des artères pulmonaires suite à une augmentation du retour veineux induit une tachycardie.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le contrôle du rythme cardiaque par le système nerveux parasympathique débute rapidement et se termine rapidement.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lorsque les apports en potassium sont élevés, la sécrétion de potassium est augmentée via les canaux ROMK et BK des cellules principales du tubule connecteur initial et du tubule collecteur cortical.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Les acidoses métaboliques hyperchlorémiques s’accompagnent toujours d’hyperkaliémie.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La prise de sartans peut induire une hyperkaliémie.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La section d’un nerf phrénique lors d’une chirurgie thoracique s'accompagne d’une dyspnée majorée en position couchée liée à une diminution du volume pulmonaire en inspiration.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> À la capacité pulmonaire totale, la pression pleurale peut atteindre - 30 cmH20.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Chez un patient avec une distension colique importante, la CRF sera plus fiablement mesurée par le  pléthysmographe corporel que par la méthode de dilution à l’hélium.     </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Une sténose d’une artère rénale peut favoriser le développement d’une hypertension artérielle systémique par libération de rénine.      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L'équilibre des forces de Starling le long des capillaires systémiques est en faveur au niveau du côté artériolaire de ceux-ci d’une filtration et au niveau du côté veinulaire de ceux-ci d’une absorption.      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lorsque la pression veineuse augmente, la forme des veines devient de plus en plus circulaire et la compliance  veineuse augmente.     </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L'hyponatrémie est notamment favorisée par des pertes urinaires de Na*.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La kaliémie normale indique que le pool de potassium reste préservé.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L'hyperosmolarité plasmatique s'explique uniquement par l’hyperglycémie.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Les diurétiques qui agissent comme inhibiteurs du récepteur aux minéralocorticoïdes peuvent être responsables du développement d’une alcalose métabolique.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Les diurétiques de l’anse favorisent l’excrétion d’une urine fortement hyper-osmotique.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La majorité des diurétiques exercent leur action tubulaire après avoir été filtrés au niveau de la barrière  glomérulaire.     </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Une diminution de la force des muscles inspiratoires s'associent à une augmentation du volume résiduel.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> En cas d’atélectasie pulmonaire associée à un déficit en surfactant, le travail respiratoire peut être majoré suite à une diminution de la compliance pulmonaire.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le surfactant permet de prévenir la formation d’un œdème pulmonaire.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Les cellules stellées activées produisent notamment du collagène de type cicatriciel qui participe au développement de la fibrose hépatique.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lors d’une hémolyse importante, un patient dont la fonction hépatique est normale présente un ictère franc à bilirubine non conjuguée et des selles décolorées.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La cholécystokinine stimule la contraction de la vésicule biliaire par réflexe vago-vagal et par voie endocrine.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Les pressions artérielles systémique et pulmonaire diastoliques positives sont liées à la structure élastique des artères qui emmagasinent du sang pendant la systole et le restituent pendant la diastole (pompe accessoire) alors que les valves aortiques et pulmonaires sont respectivement ouvertes.     </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Les résultats du cathétérisme cardiaque droit d’un patient sont les suivants : pressions artérielles pulmonaires systolique 25 mmHg et diastolique 12 mmHg, pression artérielle pulmonaire occluse 4 mmHg, pression auriculaire droite 1 mmHg, débit cardiaque 6 L/min, rythme cardiaque 60 battements par minute, pressions artérielles systémiques systolique 110 mmHg et diastolique 60 mmHg. Sur base de ces résultats, la pression motrice de la circulation pulmonaire est de 12,33 mmHg.     </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La résistance vasculaire pulmonaire est plus élevée à volume résiduel qu’à capacité pulmonaire totale.    </t>
   </si>
 </sst>
 </file>
@@ -431,7 +863,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -459,10 +891,10 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="D2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -476,10 +908,10 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="D3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -493,10 +925,10 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="D4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -510,10 +942,10 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="D5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -527,10 +959,10 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="D6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -544,7 +976,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="D7" t="b">
         <v>1</v>
@@ -561,10 +993,10 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="D8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -578,7 +1010,7 @@
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
@@ -595,10 +1027,10 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="D10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -612,13 +1044,13 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="D11" t="b">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -629,13 +1061,13 @@
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="D12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -646,13 +1078,1849 @@
         <v>7</v>
       </c>
       <c r="C13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" t="b">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" t="b">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" t="b">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" t="b">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" t="b">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" t="b">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="D13" t="b">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" t="b">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" t="b">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" t="b">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" t="b">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" t="b">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" t="b">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" t="s">
+        <v>69</v>
+      </c>
+      <c r="D27" t="b">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" t="s">
+        <v>70</v>
+      </c>
+      <c r="D28" t="b">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" t="s">
+        <v>71</v>
+      </c>
+      <c r="D29" t="b">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" t="s">
+        <v>72</v>
+      </c>
+      <c r="D30" t="b">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" t="s">
+        <v>73</v>
+      </c>
+      <c r="D31" t="b">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" t="s">
+        <v>74</v>
+      </c>
+      <c r="D32" t="b">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" t="s">
+        <v>75</v>
+      </c>
+      <c r="D33" t="b">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" t="s">
+        <v>76</v>
+      </c>
+      <c r="D34" t="b">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" t="s">
+        <v>77</v>
+      </c>
+      <c r="D35" t="b">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" t="s">
+        <v>78</v>
+      </c>
+      <c r="D36" t="b">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" t="s">
+        <v>79</v>
+      </c>
+      <c r="D37" t="b">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" t="s">
+        <v>80</v>
+      </c>
+      <c r="D38" t="b">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" t="s">
+        <v>81</v>
+      </c>
+      <c r="D39" t="b">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" t="s">
+        <v>82</v>
+      </c>
+      <c r="D40" t="b">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" t="s">
+        <v>83</v>
+      </c>
+      <c r="D41" t="b">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>17</v>
+      </c>
+      <c r="C42" t="s">
+        <v>84</v>
+      </c>
+      <c r="D42" t="b">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>17</v>
+      </c>
+      <c r="C43" t="s">
+        <v>85</v>
+      </c>
+      <c r="D43" t="b">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>18</v>
+      </c>
+      <c r="C44" t="s">
+        <v>86</v>
+      </c>
+      <c r="D44" t="b">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>18</v>
+      </c>
+      <c r="C45" t="s">
+        <v>87</v>
+      </c>
+      <c r="D45" t="b">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>18</v>
+      </c>
+      <c r="C46" t="s">
+        <v>88</v>
+      </c>
+      <c r="D46" t="b">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47" t="s">
+        <v>89</v>
+      </c>
+      <c r="D47" t="b">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>19</v>
+      </c>
+      <c r="C48" t="s">
+        <v>90</v>
+      </c>
+      <c r="D48" t="b">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>19</v>
+      </c>
+      <c r="C49" t="s">
+        <v>91</v>
+      </c>
+      <c r="D49" t="b">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>20</v>
+      </c>
+      <c r="C50" t="s">
+        <v>92</v>
+      </c>
+      <c r="D50" t="b">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>20</v>
+      </c>
+      <c r="C51" t="s">
+        <v>93</v>
+      </c>
+      <c r="D51" t="b">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>20</v>
+      </c>
+      <c r="C52" t="s">
+        <v>94</v>
+      </c>
+      <c r="D52" t="b">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>21</v>
+      </c>
+      <c r="C53" t="s">
+        <v>95</v>
+      </c>
+      <c r="D53" t="b">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>21</v>
+      </c>
+      <c r="C54" t="s">
+        <v>96</v>
+      </c>
+      <c r="D54" t="b">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>21</v>
+      </c>
+      <c r="C55" t="s">
+        <v>97</v>
+      </c>
+      <c r="D55" t="b">
+        <v>1</v>
+      </c>
+      <c r="E55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>22</v>
+      </c>
+      <c r="C56" t="s">
+        <v>98</v>
+      </c>
+      <c r="D56" t="b">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>22</v>
+      </c>
+      <c r="C57" t="s">
+        <v>99</v>
+      </c>
+      <c r="D57" t="b">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>22</v>
+      </c>
+      <c r="C58" t="s">
+        <v>100</v>
+      </c>
+      <c r="D58" t="b">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>23</v>
+      </c>
+      <c r="C59" t="s">
+        <v>101</v>
+      </c>
+      <c r="D59" t="b">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>23</v>
+      </c>
+      <c r="C60" t="s">
+        <v>102</v>
+      </c>
+      <c r="D60" t="b">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>23</v>
+      </c>
+      <c r="C61" t="s">
+        <v>103</v>
+      </c>
+      <c r="D61" t="b">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>24</v>
+      </c>
+      <c r="C62" t="s">
+        <v>104</v>
+      </c>
+      <c r="D62" t="b">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>24</v>
+      </c>
+      <c r="C63" t="s">
+        <v>105</v>
+      </c>
+      <c r="D63" t="b">
+        <v>1</v>
+      </c>
+      <c r="E63">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>24</v>
+      </c>
+      <c r="C64" t="s">
+        <v>106</v>
+      </c>
+      <c r="D64" t="b">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>25</v>
+      </c>
+      <c r="C65" t="s">
+        <v>107</v>
+      </c>
+      <c r="D65" t="b">
+        <v>1</v>
+      </c>
+      <c r="E65">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>25</v>
+      </c>
+      <c r="C66" t="s">
+        <v>108</v>
+      </c>
+      <c r="D66" t="b">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>25</v>
+      </c>
+      <c r="C67" t="s">
+        <v>109</v>
+      </c>
+      <c r="D67" t="b">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>26</v>
+      </c>
+      <c r="C68" t="s">
+        <v>110</v>
+      </c>
+      <c r="D68" t="b">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>26</v>
+      </c>
+      <c r="C69" t="s">
+        <v>111</v>
+      </c>
+      <c r="D69" t="b">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>26</v>
+      </c>
+      <c r="C70" t="s">
+        <v>112</v>
+      </c>
+      <c r="D70" t="b">
+        <v>1</v>
+      </c>
+      <c r="E70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>27</v>
+      </c>
+      <c r="C71" t="s">
+        <v>113</v>
+      </c>
+      <c r="D71" t="b">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>27</v>
+      </c>
+      <c r="C72" t="s">
+        <v>114</v>
+      </c>
+      <c r="D72" t="b">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>27</v>
+      </c>
+      <c r="C73" t="s">
+        <v>115</v>
+      </c>
+      <c r="D73" t="b">
+        <v>1</v>
+      </c>
+      <c r="E73">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>28</v>
+      </c>
+      <c r="C74" t="s">
+        <v>116</v>
+      </c>
+      <c r="D74" t="b">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>28</v>
+      </c>
+      <c r="C75" t="s">
+        <v>117</v>
+      </c>
+      <c r="D75" t="b">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>28</v>
+      </c>
+      <c r="C76" t="s">
+        <v>118</v>
+      </c>
+      <c r="D76" t="b">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>29</v>
+      </c>
+      <c r="C77" t="s">
+        <v>119</v>
+      </c>
+      <c r="D77" t="b">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>29</v>
+      </c>
+      <c r="C78" t="s">
+        <v>120</v>
+      </c>
+      <c r="D78" t="b">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>29</v>
+      </c>
+      <c r="C79" t="s">
+        <v>121</v>
+      </c>
+      <c r="D79" t="b">
+        <v>1</v>
+      </c>
+      <c r="E79">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>30</v>
+      </c>
+      <c r="C80" t="s">
+        <v>122</v>
+      </c>
+      <c r="D80" t="b">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>30</v>
+      </c>
+      <c r="C81" t="s">
+        <v>123</v>
+      </c>
+      <c r="D81" t="b">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>30</v>
+      </c>
+      <c r="C82" t="s">
+        <v>124</v>
+      </c>
+      <c r="D82" t="b">
+        <v>1</v>
+      </c>
+      <c r="E82">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>31</v>
+      </c>
+      <c r="C83" t="s">
+        <v>125</v>
+      </c>
+      <c r="D83" t="b">
+        <v>1</v>
+      </c>
+      <c r="E83">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>31</v>
+      </c>
+      <c r="C84" t="s">
+        <v>126</v>
+      </c>
+      <c r="D84" t="b">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>31</v>
+      </c>
+      <c r="C85" t="s">
+        <v>127</v>
+      </c>
+      <c r="D85" t="b">
+        <v>1</v>
+      </c>
+      <c r="E85">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>32</v>
+      </c>
+      <c r="C86" t="s">
+        <v>128</v>
+      </c>
+      <c r="D86" t="b">
+        <v>1</v>
+      </c>
+      <c r="E86">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>32</v>
+      </c>
+      <c r="C87" t="s">
+        <v>129</v>
+      </c>
+      <c r="D87" t="b">
+        <v>1</v>
+      </c>
+      <c r="E87">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>32</v>
+      </c>
+      <c r="C88" t="s">
+        <v>130</v>
+      </c>
+      <c r="D88" t="b">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>33</v>
+      </c>
+      <c r="C89" t="s">
+        <v>131</v>
+      </c>
+      <c r="D89" t="b">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>33</v>
+      </c>
+      <c r="C90" t="s">
+        <v>132</v>
+      </c>
+      <c r="D90" t="b">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>33</v>
+      </c>
+      <c r="C91" t="s">
+        <v>133</v>
+      </c>
+      <c r="D91" t="b">
+        <v>1</v>
+      </c>
+      <c r="E91">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>34</v>
+      </c>
+      <c r="C92" t="s">
+        <v>134</v>
+      </c>
+      <c r="D92" t="b">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>34</v>
+      </c>
+      <c r="C93" t="s">
+        <v>135</v>
+      </c>
+      <c r="D93" t="b">
+        <v>1</v>
+      </c>
+      <c r="E93">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>34</v>
+      </c>
+      <c r="C94" t="s">
+        <v>136</v>
+      </c>
+      <c r="D94" t="b">
+        <v>1</v>
+      </c>
+      <c r="E94">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>35</v>
+      </c>
+      <c r="C95" t="s">
+        <v>137</v>
+      </c>
+      <c r="D95" t="b">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>35</v>
+      </c>
+      <c r="C96" t="s">
+        <v>138</v>
+      </c>
+      <c r="D96" t="b">
+        <v>1</v>
+      </c>
+      <c r="E96">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>35</v>
+      </c>
+      <c r="C97" t="s">
+        <v>139</v>
+      </c>
+      <c r="D97" t="b">
+        <v>1</v>
+      </c>
+      <c r="E97">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>36</v>
+      </c>
+      <c r="C98" t="s">
+        <v>140</v>
+      </c>
+      <c r="D98" t="b">
+        <v>1</v>
+      </c>
+      <c r="E98">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>36</v>
+      </c>
+      <c r="C99" t="s">
+        <v>141</v>
+      </c>
+      <c r="D99" t="b">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>36</v>
+      </c>
+      <c r="C100" t="s">
+        <v>142</v>
+      </c>
+      <c r="D100" t="b">
+        <v>1</v>
+      </c>
+      <c r="E100">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>37</v>
+      </c>
+      <c r="C101" t="s">
+        <v>143</v>
+      </c>
+      <c r="D101" t="b">
+        <v>1</v>
+      </c>
+      <c r="E101">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="1">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>37</v>
+      </c>
+      <c r="C102" t="s">
+        <v>144</v>
+      </c>
+      <c r="D102" t="b">
+        <v>1</v>
+      </c>
+      <c r="E102">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="1">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>37</v>
+      </c>
+      <c r="C103" t="s">
+        <v>145</v>
+      </c>
+      <c r="D103" t="b">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="1">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>38</v>
+      </c>
+      <c r="C104" t="s">
+        <v>146</v>
+      </c>
+      <c r="D104" t="b">
+        <v>1</v>
+      </c>
+      <c r="E104">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="1">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>38</v>
+      </c>
+      <c r="C105" t="s">
+        <v>147</v>
+      </c>
+      <c r="D105" t="b">
+        <v>1</v>
+      </c>
+      <c r="E105">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="1">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>38</v>
+      </c>
+      <c r="C106" t="s">
+        <v>148</v>
+      </c>
+      <c r="D106" t="b">
+        <v>0</v>
+      </c>
+      <c r="E106">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="1">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>39</v>
+      </c>
+      <c r="C107" t="s">
+        <v>149</v>
+      </c>
+      <c r="D107" t="b">
+        <v>1</v>
+      </c>
+      <c r="E107">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="1">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>39</v>
+      </c>
+      <c r="C108" t="s">
+        <v>150</v>
+      </c>
+      <c r="D108" t="b">
+        <v>0</v>
+      </c>
+      <c r="E108">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="1">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>39</v>
+      </c>
+      <c r="C109" t="s">
+        <v>151</v>
+      </c>
+      <c r="D109" t="b">
+        <v>0</v>
+      </c>
+      <c r="E109">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="1">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>40</v>
+      </c>
+      <c r="C110" t="s">
+        <v>152</v>
+      </c>
+      <c r="D110" t="b">
+        <v>0</v>
+      </c>
+      <c r="E110">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="1">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>40</v>
+      </c>
+      <c r="C111" t="s">
+        <v>153</v>
+      </c>
+      <c r="D111" t="b">
+        <v>0</v>
+      </c>
+      <c r="E111">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="1">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>40</v>
+      </c>
+      <c r="C112" t="s">
+        <v>154</v>
+      </c>
+      <c r="D112" t="b">
+        <v>0</v>
+      </c>
+      <c r="E112">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" s="1">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>41</v>
+      </c>
+      <c r="C113" t="s">
+        <v>155</v>
+      </c>
+      <c r="D113" t="b">
+        <v>0</v>
+      </c>
+      <c r="E113">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="1">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>41</v>
+      </c>
+      <c r="C114" t="s">
+        <v>156</v>
+      </c>
+      <c r="D114" t="b">
+        <v>1</v>
+      </c>
+      <c r="E114">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" s="1">
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>41</v>
+      </c>
+      <c r="C115" t="s">
+        <v>157</v>
+      </c>
+      <c r="D115" t="b">
+        <v>1</v>
+      </c>
+      <c r="E115">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>42</v>
+      </c>
+      <c r="C116" t="s">
+        <v>158</v>
+      </c>
+      <c r="D116" t="b">
+        <v>0</v>
+      </c>
+      <c r="E116">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" s="1">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>42</v>
+      </c>
+      <c r="C117" t="s">
+        <v>159</v>
+      </c>
+      <c r="D117" t="b">
+        <v>0</v>
+      </c>
+      <c r="E117">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" s="1">
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>42</v>
+      </c>
+      <c r="C118" t="s">
+        <v>160</v>
+      </c>
+      <c r="D118" t="b">
+        <v>1</v>
+      </c>
+      <c r="E118">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" s="1">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>43</v>
+      </c>
+      <c r="C119" t="s">
+        <v>161</v>
+      </c>
+      <c r="D119" t="b">
+        <v>0</v>
+      </c>
+      <c r="E119">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" s="1">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>43</v>
+      </c>
+      <c r="C120" t="s">
+        <v>162</v>
+      </c>
+      <c r="D120" t="b">
+        <v>1</v>
+      </c>
+      <c r="E120">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" s="1">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>43</v>
+      </c>
+      <c r="C121" t="s">
+        <v>163</v>
+      </c>
+      <c r="D121" t="b">
+        <v>0</v>
+      </c>
+      <c r="E121">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
